--- a/biology/Botanique/Psychotria_darwiniana/Psychotria_darwiniana.xlsx
+++ b/biology/Botanique/Psychotria_darwiniana/Psychotria_darwiniana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psychotria darwiniana est une espèce de plantes du genre Psychotria[2]. C’est une plante endémique du Cameroun, dont l’habitat naturel se trouve dans la région du Sud-ouest. C'est un arbuste de sous-bois forestier de 1000-1650 m d'altitude. Elle est jusqu'à présent uniquement connue sur le mont Koupé où elle est très abondante, sur les monts Bakossi et le mont Ekomane. Elle a également été trouvée sur les monts Rumpi, où elle est rare. 
-L'espèce a été évaluée comme vulnérable voire en danger critique d'extinction à cause du nombre limité de ses emplacements (quatre) et de la réduction de son habitat par le déboisement[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychotria darwiniana est une espèce de plantes du genre Psychotria. C’est une plante endémique du Cameroun, dont l’habitat naturel se trouve dans la région du Sud-ouest. C'est un arbuste de sous-bois forestier de 1000-1650 m d'altitude. Elle est jusqu'à présent uniquement connue sur le mont Koupé où elle est très abondante, sur les monts Bakossi et le mont Ekomane. Elle a également été trouvée sur les monts Rumpi, où elle est rare. 
+L'espèce a été évaluée comme vulnérable voire en danger critique d'extinction à cause du nombre limité de ses emplacements (quatre) et de la réduction de son habitat par le déboisement.
 </t>
         </is>
       </c>
